--- a/biology/Botanique/Wade_Davis_(anthropologue)/Wade_Davis_(anthropologue).xlsx
+++ b/biology/Botanique/Wade_Davis_(anthropologue)/Wade_Davis_(anthropologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wade Davis, né le 14 décembre 1953 à West Vancouver, Colombie-Britannique (Canada), est un ethnobotaniste et anthropologue canadien. Son travail commence à être reconnu à partir de 1985 avec la parution de son livre The Serpent and the Rainbow qui traite du vaudou et des zombies en Haiti.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a un Ph.D en ethnobotanique de l'Université Harvard.
 En 1985, il publie The Serpent and the Rainbow qui est une étude des pratiques vaudou en Haïti, en particulier le processus de zombification. Ce livre sert de base à Wes Craven pour réaliser le film L'Emprise des ténèbres (The Serpent and the Rainbow) sorti en 1988.
